--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -23,7 +23,7 @@
     <x:t>RPA Journal Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>021984_014</x:t>
+    <x:t>021988_014</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,15 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t>SGSIN20023675P__YL</x:t>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Posted in AX?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Journal Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
   </x:si>
   <x:si>
     <x:t>RPA Journal Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>021988_014</x:t>
+    <x:t>021995_014</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -405,8 +414,22 @@
       </x:c>
       <x:c r="D1" s="2" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:4"/>
-    <x:row r="3" spans="1:4"/>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="2" t="s"/>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
+    </x:row>
     <x:row r="4" spans="1:4"/>
     <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -32,7 +32,7 @@
     <x:t>RPA Journal Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>021995_014</x:t>
+    <x:t>021998_014</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -26,13 +26,19 @@
     <x:t>Journal Number</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
+    <x:t>Project Num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P__YL</x:t>
   </x:si>
   <x:si>
     <x:t>RPA Journal Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>021998_014</x:t>
+    <x:t>022011_014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -412,23 +418,29 @@
       <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s"/>
       <x:c r="B3" s="2" t="s"/>
       <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
     </x:row>
     <x:row r="4" spans="1:4"/>
     <x:row r="5" spans="1:4"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -29,16 +29,37 @@
     <x:t>Project Num</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P__YL</x:t>
+    <x:t>48709-SARWAR JAHAN</x:t>
   </x:si>
   <x:si>
     <x:t>RPA Journal Completed</x:t>
   </x:si>
   <x:si>
-    <x:t>022011_014</x:t>
+    <x:t>002155_014</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P</x:t>
+    <x:t>SIN20403994P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VM7204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>008014_014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VM7205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>008015_014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307404-Mozah161220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>011178_014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20024750W</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -437,14 +458,53 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="2" t="s"/>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
+      <x:c r="A3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:4"/>
-    <x:row r="5" spans="1:4"/>
-    <x:row r="6" spans="1:4"/>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s"/>
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+    </x:row>
     <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4"/>
     <x:row r="9" spans="1:4"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -23,25 +23,34 @@
     <x:t>Posted in AX?</x:t>
   </x:si>
   <x:si>
+    <x:t>Project Num</x:t>
+  </x:si>
+  <x:si>
     <x:t>Journal Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Project Num</x:t>
+    <x:t>SGSIN20021416W_dhl2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RPA Journal Completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20021416W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P__YL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>002155_014</x:t>
   </x:si>
   <x:si>
     <x:t>48709-SARWAR JAHAN</x:t>
   </x:si>
   <x:si>
-    <x:t>RPA Journal Completed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>002155_014</x:t>
-  </x:si>
-  <x:si>
     <x:t>SIN20403994P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VM7204</x:t>
   </x:si>
   <x:si>
     <x:t>008014_014</x:t>
@@ -56,10 +65,10 @@
     <x:t>307404-Mozah161220</x:t>
   </x:si>
   <x:si>
-    <x:t>011178_014</x:t>
+    <x:t>SGSIN20024750W</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20024750W</x:t>
+    <x:t>011178_014</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -453,22 +462,20 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -482,28 +489,36 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="A6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4"/>
